--- a/DevelopChecklist.xlsx
+++ b/DevelopChecklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\innoboxrr\packages\laravel-blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFAA6B4-1ED5-4243-9DFA-9A22D55E1558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0348FECA-217E-4C3B-9F21-79E6A33AA0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C4B8113D-0672-4603-BE1D-648575D65001}"/>
   </bookViews>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="94">
   <si>
     <t>Backend</t>
   </si>
@@ -438,6 +438,9 @@
   </si>
   <si>
     <t>BlogPost</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1219,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
+      <selection pane="bottomRight" activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1752,7 +1755,7 @@
       </c>
       <c r="CP3" s="8">
         <f>SUM(CN10,CN12)*100/(CP2*CP1) * 0.01</f>
-        <v>0.13333333333333333</v>
+        <v>0.23055555555555557</v>
       </c>
     </row>
     <row r="4" spans="1:94" x14ac:dyDescent="0.3">
@@ -1786,10 +1789,18 @@
       <c r="J4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="18"/>
+      <c r="K4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="O4" s="19" t="s">
         <v>68</v>
       </c>
@@ -1799,11 +1810,21 @@
       <c r="Q4" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="18"/>
+      <c r="R4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>68</v>
+      </c>
       <c r="W4" s="19"/>
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
@@ -1875,11 +1896,11 @@
       <c r="CM4" s="10"/>
       <c r="CN4" s="1">
         <f>COUNTIF(B4:CM4,"")</f>
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="CO4" s="3">
         <f>CN4/$CP$2</f>
-        <v>0.8666666666666667</v>
+        <v>0.76666666666666672</v>
       </c>
     </row>
     <row r="5" spans="1:94" x14ac:dyDescent="0.3">
@@ -1913,10 +1934,18 @@
       <c r="J5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="18"/>
+      <c r="K5" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="O5" s="19" t="s">
         <v>68</v>
       </c>
@@ -1926,11 +1955,21 @@
       <c r="Q5" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="18"/>
+      <c r="R5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>68</v>
+      </c>
       <c r="W5" s="19"/>
       <c r="X5" s="13"/>
       <c r="Y5" s="13"/>
@@ -2002,11 +2041,11 @@
       <c r="CM5" s="10"/>
       <c r="CN5" s="1">
         <f>COUNTIF(B5:CM5,"")</f>
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="CO5" s="3">
         <f t="shared" ref="CO5:CO7" si="0">CN5/$CP$2</f>
-        <v>0.8666666666666667</v>
+        <v>0.76666666666666672</v>
       </c>
     </row>
     <row r="6" spans="1:94" x14ac:dyDescent="0.3">
@@ -2040,10 +2079,18 @@
       <c r="J6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="18"/>
+      <c r="K6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="O6" s="19" t="s">
         <v>68</v>
       </c>
@@ -2053,11 +2100,21 @@
       <c r="Q6" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="18"/>
+      <c r="R6" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="V6" s="18" t="s">
+        <v>68</v>
+      </c>
       <c r="W6" s="19"/>
       <c r="X6" s="13"/>
       <c r="Y6" s="13"/>
@@ -2129,11 +2186,11 @@
       <c r="CM6" s="10"/>
       <c r="CN6" s="1">
         <f>COUNTIF(B6:CM6,"")</f>
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="CO6" s="3">
         <f t="shared" si="0"/>
-        <v>0.8666666666666667</v>
+        <v>0.76666666666666672</v>
       </c>
     </row>
     <row r="7" spans="1:94" x14ac:dyDescent="0.3">
@@ -2167,10 +2224,18 @@
       <c r="J7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="18"/>
+      <c r="K7" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>68</v>
+      </c>
       <c r="O7" s="19" t="s">
         <v>68</v>
       </c>
@@ -2180,11 +2245,21 @@
       <c r="Q7" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="18"/>
+      <c r="R7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="V7" s="18" t="s">
+        <v>68</v>
+      </c>
       <c r="W7" s="19"/>
       <c r="X7" s="13"/>
       <c r="Y7" s="13"/>
@@ -2256,11 +2331,11 @@
       <c r="CM7" s="10"/>
       <c r="CN7" s="1">
         <f>COUNTIF(B7:CM7,"")</f>
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="CO7" s="3">
         <f t="shared" si="0"/>
-        <v>0.8666666666666667</v>
+        <v>0.76666666666666672</v>
       </c>
     </row>
     <row r="8" spans="1:94" x14ac:dyDescent="0.3">
@@ -2271,368 +2346,368 @@
         <v>72</v>
       </c>
       <c r="B9" s="1">
-        <f>COUNTIF(B4:B7,"")</f>
+        <f t="shared" ref="B9:AG9" si="1">COUNTIF(B4:B7,"")</f>
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <f>COUNTIF(C4:C7,"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <f>COUNTIF(D4:D7,"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <f>COUNTIF(E4:E7,"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <f>COUNTIF(F4:F7,"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <f>COUNTIF(G4:G7,"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <f>COUNTIF(H4:H7,"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f>COUNTIF(I4:I7,"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <f>COUNTIF(J4:J7,"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f>COUNTIF(K4:K7,"")</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
-        <f>COUNTIF(L4:L7,"")</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
-        <f>COUNTIF(M4:M7,"")</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <f>COUNTIF(N4:N7,"")</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <f>COUNTIF(O4:O7,"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P9" s="1">
-        <f>COUNTIF(P4:P7,"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <f>COUNTIF(Q4:Q7,"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R9" s="1">
-        <f>COUNTIF(R4:R7,"")</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="S9" s="1">
-        <f>COUNTIF(S4:S7,"")</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T9" s="1">
-        <f>COUNTIF(T4:T7,"")</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <f>COUNTIF(U4:U7,"")</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="V9" s="1">
-        <f>COUNTIF(V4:V7,"")</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="W9" s="1">
-        <f>COUNTIF(W4:W7,"")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="X9" s="1">
-        <f>COUNTIF(X4:X7,"")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Y9" s="1">
-        <f>COUNTIF(Y4:Y7,"")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Z9" s="1">
-        <f>COUNTIF(Z4:Z7,"")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AA9" s="1">
-        <f>COUNTIF(AA4:AA7,"")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AB9" s="1">
-        <f>COUNTIF(AB4:AB7,"")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AC9" s="1">
-        <f>COUNTIF(AC4:AC7,"")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AD9" s="1">
-        <f>COUNTIF(AD4:AD7,"")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AE9" s="1">
-        <f>COUNTIF(AE4:AE7,"")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AF9" s="1">
-        <f>COUNTIF(AF4:AF7,"")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AG9" s="1">
-        <f>COUNTIF(AG4:AG7,"")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AH9" s="1">
-        <f>COUNTIF(AH4:AH7,"")</f>
+        <f t="shared" ref="AH9:BM9" si="2">COUNTIF(AH4:AH7,"")</f>
         <v>4</v>
       </c>
       <c r="AI9" s="1">
-        <f>COUNTIF(AI4:AI7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AJ9" s="1">
-        <f>COUNTIF(AJ4:AJ7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AK9" s="1">
-        <f>COUNTIF(AK4:AK7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AL9" s="1">
-        <f>COUNTIF(AL4:AL7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AM9" s="1">
-        <f>COUNTIF(AM4:AM7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AN9" s="1">
-        <f>COUNTIF(AN4:AN7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AO9" s="1">
-        <f>COUNTIF(AO4:AO7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AP9" s="1">
-        <f>COUNTIF(AP4:AP7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AQ9" s="1">
-        <f>COUNTIF(AQ4:AQ7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AR9" s="1">
-        <f>COUNTIF(AR4:AR7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AS9" s="1">
-        <f>COUNTIF(AS4:AS7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AT9" s="1">
-        <f>COUNTIF(AT4:AT7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AU9" s="1">
-        <f>COUNTIF(AU4:AU7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AV9" s="1">
-        <f>COUNTIF(AV4:AV7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AW9" s="1">
-        <f>COUNTIF(AW4:AW7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AX9" s="1">
-        <f>COUNTIF(AX4:AX7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AY9" s="1">
-        <f>COUNTIF(AY4:AY7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AZ9" s="1">
-        <f>COUNTIF(AZ4:AZ7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BA9" s="1">
-        <f>COUNTIF(BA4:BA7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BB9" s="1">
-        <f>COUNTIF(BB4:BB7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BC9" s="1">
-        <f>COUNTIF(BC4:BC7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BD9" s="1">
-        <f>COUNTIF(BD4:BD7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BE9" s="1">
-        <f>COUNTIF(BE4:BE7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BF9" s="1">
-        <f>COUNTIF(BF4:BF7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BG9" s="1">
-        <f>COUNTIF(BG4:BG7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BH9" s="1">
-        <f>COUNTIF(BH4:BH7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BI9" s="1">
-        <f>COUNTIF(BI4:BI7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BJ9" s="1">
-        <f>COUNTIF(BJ4:BJ7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BK9" s="1">
-        <f>COUNTIF(BK4:BK7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BL9" s="1">
-        <f>COUNTIF(BL4:BL7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BM9" s="1">
-        <f>COUNTIF(BM4:BM7,"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BN9" s="1">
-        <f>COUNTIF(BN4:BN7,"")</f>
+        <f t="shared" ref="BN9:CM9" si="3">COUNTIF(BN4:BN7,"")</f>
         <v>4</v>
       </c>
       <c r="BO9" s="1">
-        <f>COUNTIF(BO4:BO7,"")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="BP9" s="1">
-        <f>COUNTIF(BP4:BP7,"")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="BQ9" s="1">
-        <f>COUNTIF(BQ4:BQ7,"")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="BR9" s="1">
-        <f>COUNTIF(BR4:BR7,"")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="BS9" s="1">
-        <f>COUNTIF(BS4:BS7,"")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="BT9" s="1">
-        <f>COUNTIF(BT4:BT7,"")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="BU9" s="1">
-        <f>COUNTIF(BU4:BU7,"")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="BV9" s="1">
-        <f>COUNTIF(BV4:BV7,"")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="BW9" s="1">
-        <f>COUNTIF(BW4:BW7,"")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="BX9" s="1">
-        <f>COUNTIF(BX4:BX7,"")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="BY9" s="1">
-        <f>COUNTIF(BY4:BY7,"")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="BZ9" s="1">
-        <f>COUNTIF(BZ4:BZ7,"")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="CA9" s="1">
-        <f>COUNTIF(CA4:CA7,"")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="CB9" s="1">
-        <f>COUNTIF(CB4:CB7,"")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="CC9" s="1">
-        <f>COUNTIF(CC4:CC7,"")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="CD9" s="1">
-        <f>COUNTIF(CD4:CD7,"")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="CE9" s="1">
-        <f>COUNTIF(CE4:CE7,"")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="CF9" s="1">
-        <f>COUNTIF(CF4:CF7,"")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="CG9" s="1">
-        <f>COUNTIF(CG4:CG7,"")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="CH9" s="1">
-        <f>COUNTIF(CH4:CH7,"")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="CI9" s="1">
-        <f>COUNTIF(CI4:CI7,"")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="CJ9" s="1">
-        <f>COUNTIF(CJ4:CJ7,"")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="CK9" s="1">
-        <f>COUNTIF(CK4:CK7,"")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="CL9" s="1">
-        <f>COUNTIF(CL4:CL7,"")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="CM9" s="1">
-        <f>COUNTIF(CM4:CM7,"")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="CN9" s="6">
         <f>SUM(B9:CM9)</f>
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="CO9" s="2"/>
     </row>
@@ -2641,368 +2716,368 @@
         <v>73</v>
       </c>
       <c r="B10" s="1">
-        <f>COUNTIF(B4:B7,"x")</f>
+        <f t="shared" ref="B10:AG10" si="4">COUNTIF(B4:B7,"x")</f>
         <v>4</v>
       </c>
       <c r="C10" s="1">
-        <f>COUNTIF(C4:C7,"x")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D10" s="1">
-        <f>COUNTIF(D4:D7,"x")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E10" s="1">
-        <f>COUNTIF(E4:E7,"x")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F10" s="1">
-        <f>COUNTIF(F4:F7,"x")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G10" s="1">
-        <f>COUNTIF(G4:G7,"x")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H10" s="1">
-        <f>COUNTIF(H4:H7,"x")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I10" s="1">
-        <f>COUNTIF(I4:I7,"x")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J10" s="1">
-        <f>COUNTIF(J4:J7,"x")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K10" s="1">
-        <f>COUNTIF(K4:K7,"x")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L10" s="1">
-        <f>COUNTIF(L4:L7,"x")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="M10" s="1">
-        <f>COUNTIF(M4:M7,"x")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="N10" s="1">
-        <f>COUNTIF(N4:N7,"x")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="O10" s="1">
-        <f>COUNTIF(O4:O7,"x")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P10" s="1">
-        <f>COUNTIF(P4:P7,"x")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="Q10" s="1">
-        <f>COUNTIF(Q4:Q7,"x")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R10" s="1">
-        <f>COUNTIF(R4:R7,"x")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="S10" s="1">
-        <f>COUNTIF(S4:S7,"x")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T10" s="1">
-        <f>COUNTIF(T4:T7,"x")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U10" s="1">
-        <f>COUNTIF(U4:U7,"x")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="V10" s="1">
-        <f>COUNTIF(V4:V7,"x")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="W10" s="1">
-        <f>COUNTIF(W4:W7,"x")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X10" s="1">
-        <f>COUNTIF(X4:X7,"x")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <f>COUNTIF(Y4:Y7,"x")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <f>COUNTIF(Z4:Z7,"x")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA10" s="1">
-        <f>COUNTIF(AA4:AA7,"x")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB10" s="1">
-        <f>COUNTIF(AB4:AB7,"x")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC10" s="1">
-        <f>COUNTIF(AC4:AC7,"x")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD10" s="1">
-        <f>COUNTIF(AD4:AD7,"x")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <f>COUNTIF(AE4:AE7,"x")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <f>COUNTIF(AF4:AF7,"x")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG10" s="1">
-        <f>COUNTIF(AG4:AG7,"x")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH10" s="1">
-        <f>COUNTIF(AH4:AH7,"x")</f>
+        <f t="shared" ref="AH10:BM10" si="5">COUNTIF(AH4:AH7,"x")</f>
         <v>0</v>
       </c>
       <c r="AI10" s="1">
-        <f>COUNTIF(AI4:AI7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <f>COUNTIF(AJ4:AJ7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK10" s="1">
-        <f>COUNTIF(AK4:AK7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL10" s="1">
-        <f>COUNTIF(AL4:AL7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AM10" s="1">
-        <f>COUNTIF(AM4:AM7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN10" s="1">
-        <f>COUNTIF(AN4:AN7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <f>COUNTIF(AO4:AO7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AP10" s="1">
-        <f>COUNTIF(AP4:AP7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AQ10" s="1">
-        <f>COUNTIF(AQ4:AQ7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <f>COUNTIF(AR4:AR7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AS10" s="1">
-        <f>COUNTIF(AS4:AS7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <f>COUNTIF(AT4:AT7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU10" s="1">
-        <f>COUNTIF(AU4:AU7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AV10" s="1">
-        <f>COUNTIF(AV4:AV7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AW10" s="1">
-        <f>COUNTIF(AW4:AW7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AX10" s="1">
-        <f>COUNTIF(AX4:AX7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <f>COUNTIF(AY4:AY7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AZ10" s="1">
-        <f>COUNTIF(AZ4:AZ7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BA10" s="1">
-        <f>COUNTIF(BA4:BA7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BB10" s="1">
-        <f>COUNTIF(BB4:BB7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC10" s="1">
-        <f>COUNTIF(BC4:BC7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <f>COUNTIF(BD4:BD7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BE10" s="1">
-        <f>COUNTIF(BE4:BE7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BF10" s="1">
-        <f>COUNTIF(BF4:BF7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG10" s="1">
-        <f>COUNTIF(BG4:BG7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BH10" s="1">
-        <f>COUNTIF(BH4:BH7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <f>COUNTIF(BI4:BI7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ10" s="1">
-        <f>COUNTIF(BJ4:BJ7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BK10" s="1">
-        <f>COUNTIF(BK4:BK7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BL10" s="1">
-        <f>COUNTIF(BL4:BL7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BM10" s="1">
-        <f>COUNTIF(BM4:BM7,"x")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <f>COUNTIF(BN4:BN7,"x")</f>
+        <f t="shared" ref="BN10:CM10" si="6">COUNTIF(BN4:BN7,"x")</f>
         <v>0</v>
       </c>
       <c r="BO10" s="1">
-        <f>COUNTIF(BO4:BO7,"x")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BP10" s="1">
-        <f>COUNTIF(BP4:BP7,"x")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BQ10" s="1">
-        <f>COUNTIF(BQ4:BQ7,"x")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BR10" s="1">
-        <f>COUNTIF(BR4:BR7,"x")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <f>COUNTIF(BS4:BS7,"x")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BT10" s="1">
-        <f>COUNTIF(BT4:BT7,"x")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BU10" s="1">
-        <f>COUNTIF(BU4:BU7,"x")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BV10" s="1">
-        <f>COUNTIF(BV4:BV7,"x")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BW10" s="1">
-        <f>COUNTIF(BW4:BW7,"x")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <f>COUNTIF(BX4:BX7,"x")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BY10" s="1">
-        <f>COUNTIF(BY4:BY7,"x")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BZ10" s="1">
-        <f>COUNTIF(BZ4:BZ7,"x")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CA10" s="1">
-        <f>COUNTIF(CA4:CA7,"x")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CB10" s="1">
-        <f>COUNTIF(CB4:CB7,"x")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <f>COUNTIF(CC4:CC7,"x")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CD10" s="1">
-        <f>COUNTIF(CD4:CD7,"x")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CE10" s="1">
-        <f>COUNTIF(CE4:CE7,"x")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CF10" s="1">
-        <f>COUNTIF(CF4:CF7,"x")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CG10" s="1">
-        <f>COUNTIF(CG4:CG7,"x")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CH10" s="1">
-        <f>COUNTIF(CH4:CH7,"x")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CI10" s="1">
-        <f>COUNTIF(CI4:CI7,"x")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CJ10" s="1">
-        <f>COUNTIF(CJ4:CJ7,"x")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CK10" s="1">
-        <f>COUNTIF(CK4:CK7,"x")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CL10" s="1">
-        <f>COUNTIF(CL4:CL7,"x")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CM10" s="1">
-        <f>COUNTIF(CM4:CM7,"x")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CN10" s="1">
         <f>SUM(B10:CM10)</f>
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="CO10" s="2"/>
     </row>
@@ -3011,368 +3086,368 @@
         <v>70</v>
       </c>
       <c r="B11" s="1">
-        <f>COUNTIF(B4:B7,"p")</f>
+        <f t="shared" ref="B11:AG11" si="7">COUNTIF(B4:B7,"p")</f>
         <v>0</v>
       </c>
       <c r="C11" s="1">
-        <f>COUNTIF(C4:C7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <f>COUNTIF(D4:D7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <f>COUNTIF(E4:E7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <f>COUNTIF(F4:F7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <f>COUNTIF(G4:G7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <f>COUNTIF(H4:H7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f>COUNTIF(I4:I7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <f>COUNTIF(J4:J7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f>COUNTIF(K4:K7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L11" s="1">
-        <f>COUNTIF(L4:L7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M11" s="1">
-        <f>COUNTIF(M4:M7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N11" s="1">
-        <f>COUNTIF(N4:N7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O11" s="1">
-        <f>COUNTIF(O4:O7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P11" s="1">
-        <f>COUNTIF(P4:P7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q11" s="1">
-        <f>COUNTIF(Q4:Q7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <f>COUNTIF(R4:R7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S11" s="1">
-        <f>COUNTIF(S4:S7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T11" s="1">
-        <f>COUNTIF(T4:T7,"p")</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="U11" s="1">
-        <f>COUNTIF(U4:U7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V11" s="1">
-        <f>COUNTIF(V4:V7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W11" s="1">
-        <f>COUNTIF(W4:W7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X11" s="1">
-        <f>COUNTIF(X4:X7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <f>COUNTIF(Y4:Y7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <f>COUNTIF(Z4:Z7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA11" s="1">
-        <f>COUNTIF(AA4:AA7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB11" s="1">
-        <f>COUNTIF(AB4:AB7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC11" s="1">
-        <f>COUNTIF(AC4:AC7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD11" s="1">
-        <f>COUNTIF(AD4:AD7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <f>COUNTIF(AE4:AE7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <f>COUNTIF(AF4:AF7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG11" s="1">
-        <f>COUNTIF(AG4:AG7,"p")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH11" s="1">
-        <f>COUNTIF(AH4:AH7,"p")</f>
+        <f t="shared" ref="AH11:BM11" si="8">COUNTIF(AH4:AH7,"p")</f>
         <v>0</v>
       </c>
       <c r="AI11" s="1">
-        <f>COUNTIF(AI4:AI7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <f>COUNTIF(AJ4:AJ7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK11" s="1">
-        <f>COUNTIF(AK4:AK7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL11" s="1">
-        <f>COUNTIF(AL4:AL7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM11" s="1">
-        <f>COUNTIF(AM4:AM7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN11" s="1">
-        <f>COUNTIF(AN4:AN7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <f>COUNTIF(AO4:AO7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP11" s="1">
-        <f>COUNTIF(AP4:AP7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ11" s="1">
-        <f>COUNTIF(AQ4:AQ7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <f>COUNTIF(AR4:AR7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <f>COUNTIF(AS4:AS7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <f>COUNTIF(AT4:AT7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU11" s="1">
-        <f>COUNTIF(AU4:AU7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AV11" s="1">
-        <f>COUNTIF(AV4:AV7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW11" s="1">
-        <f>COUNTIF(AW4:AW7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AX11" s="1">
-        <f>COUNTIF(AX4:AX7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <f>COUNTIF(AY4:AY7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AZ11" s="1">
-        <f>COUNTIF(AZ4:AZ7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BA11" s="1">
-        <f>COUNTIF(BA4:BA7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BB11" s="1">
-        <f>COUNTIF(BB4:BB7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BC11" s="1">
-        <f>COUNTIF(BC4:BC7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <f>COUNTIF(BD4:BD7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BE11" s="1">
-        <f>COUNTIF(BE4:BE7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BF11" s="1">
-        <f>COUNTIF(BF4:BF7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BG11" s="1">
-        <f>COUNTIF(BG4:BG7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BH11" s="1">
-        <f>COUNTIF(BH4:BH7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <f>COUNTIF(BI4:BI7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ11" s="1">
-        <f>COUNTIF(BJ4:BJ7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BK11" s="1">
-        <f>COUNTIF(BK4:BK7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BL11" s="1">
-        <f>COUNTIF(BL4:BL7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BM11" s="1">
-        <f>COUNTIF(BM4:BM7,"p")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <f>COUNTIF(BN4:BN7,"p")</f>
+        <f t="shared" ref="BN11:CM11" si="9">COUNTIF(BN4:BN7,"p")</f>
         <v>0</v>
       </c>
       <c r="BO11" s="1">
-        <f>COUNTIF(BO4:BO7,"p")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BP11" s="1">
-        <f>COUNTIF(BP4:BP7,"p")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BQ11" s="1">
-        <f>COUNTIF(BQ4:BQ7,"p")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BR11" s="1">
-        <f>COUNTIF(BR4:BR7,"p")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <f>COUNTIF(BS4:BS7,"p")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BT11" s="1">
-        <f>COUNTIF(BT4:BT7,"p")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BU11" s="1">
-        <f>COUNTIF(BU4:BU7,"p")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BV11" s="1">
-        <f>COUNTIF(BV4:BV7,"p")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BW11" s="1">
-        <f>COUNTIF(BW4:BW7,"p")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <f>COUNTIF(BX4:BX7,"p")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BY11" s="1">
-        <f>COUNTIF(BY4:BY7,"p")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BZ11" s="1">
-        <f>COUNTIF(BZ4:BZ7,"p")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="CA11" s="1">
-        <f>COUNTIF(CA4:CA7,"p")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="CB11" s="1">
-        <f>COUNTIF(CB4:CB7,"p")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <f>COUNTIF(CC4:CC7,"p")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="CD11" s="1">
-        <f>COUNTIF(CD4:CD7,"p")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="CE11" s="1">
-        <f>COUNTIF(CE4:CE7,"p")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="CF11" s="1">
-        <f>COUNTIF(CF4:CF7,"p")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="CG11" s="1">
-        <f>COUNTIF(CG4:CG7,"p")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="CH11" s="1">
-        <f>COUNTIF(CH4:CH7,"p")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="CI11" s="1">
-        <f>COUNTIF(CI4:CI7,"p")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="CJ11" s="1">
-        <f>COUNTIF(CJ4:CJ7,"p")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="CK11" s="1">
-        <f>COUNTIF(CK4:CK7,"p")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="CL11" s="1">
-        <f>COUNTIF(CL4:CL7,"p")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="CM11" s="1">
-        <f>COUNTIF(CM4:CM7,"p")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="CN11" s="1">
         <f>SUM(B11:CM11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:94" x14ac:dyDescent="0.3">
@@ -3380,368 +3455,368 @@
         <v>74</v>
       </c>
       <c r="B12" s="1">
-        <f>COUNTIF(B4:B7,"-")</f>
+        <f t="shared" ref="B12:AG12" si="10">COUNTIF(B4:B7,"-")</f>
         <v>0</v>
       </c>
       <c r="C12" s="1">
-        <f>COUNTIF(C4:C7,"-")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <f>COUNTIF(D4:D7,"-")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <f>COUNTIF(E4:E7,"-")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <f>COUNTIF(F4:F7,"-")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <f>COUNTIF(G4:G7,"-")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <f>COUNTIF(H4:H7,"-")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <f>COUNTIF(I4:I7,"-")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <f>COUNTIF(J4:J7,"-")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K12" s="1">
-        <f>COUNTIF(K4:K7,"-")</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="L12" s="1">
-        <f>COUNTIF(L4:L7,"-")</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="M12" s="1">
-        <f>COUNTIF(M4:M7,"-")</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="N12" s="1">
-        <f>COUNTIF(N4:N7,"-")</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="O12" s="1">
-        <f>COUNTIF(O4:O7,"-")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <f>COUNTIF(P4:P7,"-")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <f>COUNTIF(Q4:Q7,"-")</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="R12" s="1">
-        <f>COUNTIF(R4:R7,"-")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S12" s="1">
-        <f>COUNTIF(S4:S7,"-")</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="T12" s="1">
-        <f>COUNTIF(T4:T7,"-")</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="U12" s="1">
-        <f>COUNTIF(U4:U7,"-")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V12" s="1">
-        <f>COUNTIF(V4:V7,"-")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <f>COUNTIF(W4:W7,"-")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X12" s="1">
-        <f>COUNTIF(X4:X7,"-")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <f>COUNTIF(Y4:Y7,"-")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <f>COUNTIF(Z4:Z7,"-")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA12" s="1">
-        <f>COUNTIF(AA4:AA7,"-")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB12" s="1">
-        <f>COUNTIF(AB4:AB7,"-")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC12" s="1">
-        <f>COUNTIF(AC4:AC7,"-")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD12" s="1">
-        <f>COUNTIF(AD4:AD7,"-")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <f>COUNTIF(AE4:AE7,"-")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <f>COUNTIF(AF4:AF7,"-")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AG12" s="1">
-        <f>COUNTIF(AG4:AG7,"-")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH12" s="1">
-        <f>COUNTIF(AH4:AH7,"-")</f>
+        <f t="shared" ref="AH12:BM12" si="11">COUNTIF(AH4:AH7,"-")</f>
         <v>0</v>
       </c>
       <c r="AI12" s="1">
-        <f>COUNTIF(AI4:AI7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <f>COUNTIF(AJ4:AJ7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <f>COUNTIF(AK4:AK7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL12" s="1">
-        <f>COUNTIF(AL4:AL7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AM12" s="1">
-        <f>COUNTIF(AM4:AM7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN12" s="1">
-        <f>COUNTIF(AN4:AN7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <f>COUNTIF(AO4:AO7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AP12" s="1">
-        <f>COUNTIF(AP4:AP7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AQ12" s="1">
-        <f>COUNTIF(AQ4:AQ7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <f>COUNTIF(AR4:AR7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <f>COUNTIF(AS4:AS7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <f>COUNTIF(AT4:AT7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AU12" s="1">
-        <f>COUNTIF(AU4:AU7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AV12" s="1">
-        <f>COUNTIF(AV4:AV7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW12" s="1">
-        <f>COUNTIF(AW4:AW7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AX12" s="1">
-        <f>COUNTIF(AX4:AX7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <f>COUNTIF(AY4:AY7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AZ12" s="1">
-        <f>COUNTIF(AZ4:AZ7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BA12" s="1">
-        <f>COUNTIF(BA4:BA7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BB12" s="1">
-        <f>COUNTIF(BB4:BB7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BC12" s="1">
-        <f>COUNTIF(BC4:BC7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <f>COUNTIF(BD4:BD7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BE12" s="1">
-        <f>COUNTIF(BE4:BE7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BF12" s="1">
-        <f>COUNTIF(BF4:BF7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BG12" s="1">
-        <f>COUNTIF(BG4:BG7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BH12" s="1">
-        <f>COUNTIF(BH4:BH7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <f>COUNTIF(BI4:BI7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BJ12" s="1">
-        <f>COUNTIF(BJ4:BJ7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BK12" s="1">
-        <f>COUNTIF(BK4:BK7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BL12" s="1">
-        <f>COUNTIF(BL4:BL7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BM12" s="1">
-        <f>COUNTIF(BM4:BM7,"-")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <f>COUNTIF(BN4:BN7,"-")</f>
+        <f t="shared" ref="BN12:CM12" si="12">COUNTIF(BN4:BN7,"-")</f>
         <v>0</v>
       </c>
       <c r="BO12" s="1">
-        <f>COUNTIF(BO4:BO7,"-")</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BP12" s="1">
-        <f>COUNTIF(BP4:BP7,"-")</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BQ12" s="1">
-        <f>COUNTIF(BQ4:BQ7,"-")</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BR12" s="1">
-        <f>COUNTIF(BR4:BR7,"-")</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <f>COUNTIF(BS4:BS7,"-")</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BT12" s="1">
-        <f>COUNTIF(BT4:BT7,"-")</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BU12" s="1">
-        <f>COUNTIF(BU4:BU7,"-")</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BV12" s="1">
-        <f>COUNTIF(BV4:BV7,"-")</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BW12" s="1">
-        <f>COUNTIF(BW4:BW7,"-")</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <f>COUNTIF(BX4:BX7,"-")</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BY12" s="1">
-        <f>COUNTIF(BY4:BY7,"-")</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BZ12" s="1">
-        <f>COUNTIF(BZ4:BZ7,"-")</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="CA12" s="1">
-        <f>COUNTIF(CA4:CA7,"-")</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="CB12" s="1">
-        <f>COUNTIF(CB4:CB7,"-")</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <f>COUNTIF(CC4:CC7,"-")</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="CD12" s="1">
-        <f>COUNTIF(CD4:CD7,"-")</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="CE12" s="1">
-        <f>COUNTIF(CE4:CE7,"-")</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="CF12" s="1">
-        <f>COUNTIF(CF4:CF7,"-")</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="CG12" s="1">
-        <f>COUNTIF(CG4:CG7,"-")</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="CH12" s="1">
-        <f>COUNTIF(CH4:CH7,"-")</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="CI12" s="1">
-        <f>COUNTIF(CI4:CI7,"-")</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="CJ12" s="1">
-        <f>COUNTIF(CJ4:CJ7,"-")</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="CK12" s="1">
-        <f>COUNTIF(CK4:CK7,"-")</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="CL12" s="1">
-        <f>COUNTIF(CL4:CL7,"-")</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="CM12" s="1">
-        <f>COUNTIF(CM4:CM7,"-")</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="CN12" s="1">
         <f>SUM(B12:CM12)</f>
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3772,11 +3847,6 @@
       <formula>"p"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:CM7">
-    <cfRule type="containsBlanks" dxfId="0" priority="49" stopIfTrue="1">
-      <formula>LEN(TRIM(D4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B9:CM12">
     <cfRule type="colorScale" priority="206">
       <colorScale>
@@ -3787,6 +3857,11 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:CM7">
+    <cfRule type="containsBlanks" dxfId="0" priority="49" stopIfTrue="1">
+      <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO4:CO7">

--- a/DevelopChecklist.xlsx
+++ b/DevelopChecklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\innoboxrr\packages\laravel-blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0348FECA-217E-4C3B-9F21-79E6A33AA0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D1D820-4E1F-4960-94B5-9A7F65956BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C4B8113D-0672-4603-BE1D-648575D65001}"/>
+    <workbookView xWindow="19090" yWindow="-3510" windowWidth="19420" windowHeight="10300" xr2:uid="{C4B8113D-0672-4603-BE1D-648575D65001}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy" sheetId="7" r:id="rId1"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="95">
   <si>
     <t>Backend</t>
   </si>
@@ -441,6 +441,9 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>BlogSubscriber</t>
   </si>
 </sst>
 </file>
@@ -755,9 +758,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -833,13 +833,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1213,13 +1258,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CP12"/>
+  <dimension ref="A1:CP13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W4" sqref="W4"/>
+      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1248,101 +1293,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:94" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31">
+      <c r="A1" s="30">
         <v>0.76700336700336713</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="35"/>
-      <c r="BD1" s="35"/>
-      <c r="BE1" s="35"/>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="35"/>
-      <c r="BH1" s="35"/>
-      <c r="BI1" s="35"/>
-      <c r="BJ1" s="35"/>
-      <c r="BK1" s="35"/>
-      <c r="BL1" s="35"/>
-      <c r="BM1" s="35"/>
-      <c r="BN1" s="35"/>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="35"/>
-      <c r="BQ1" s="35"/>
-      <c r="BR1" s="35"/>
-      <c r="BS1" s="35"/>
-      <c r="BT1" s="35"/>
-      <c r="BU1" s="35"/>
-      <c r="BV1" s="35"/>
-      <c r="BW1" s="35"/>
-      <c r="BX1" s="35"/>
-      <c r="BY1" s="35"/>
-      <c r="BZ1" s="35"/>
-      <c r="CA1" s="35"/>
-      <c r="CB1" s="35"/>
-      <c r="CC1" s="35"/>
-      <c r="CD1" s="35"/>
-      <c r="CE1" s="35"/>
-      <c r="CF1" s="35"/>
-      <c r="CG1" s="35"/>
-      <c r="CH1" s="35"/>
-      <c r="CI1" s="35"/>
-      <c r="CJ1" s="35"/>
-      <c r="CK1" s="35"/>
-      <c r="CL1" s="35"/>
-      <c r="CM1" s="35"/>
+      <c r="B1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="34"/>
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="34"/>
+      <c r="BG1" s="34"/>
+      <c r="BH1" s="34"/>
+      <c r="BI1" s="34"/>
+      <c r="BJ1" s="34"/>
+      <c r="BK1" s="34"/>
+      <c r="BL1" s="34"/>
+      <c r="BM1" s="34"/>
+      <c r="BN1" s="34"/>
+      <c r="BO1" s="34"/>
+      <c r="BP1" s="34"/>
+      <c r="BQ1" s="34"/>
+      <c r="BR1" s="34"/>
+      <c r="BS1" s="34"/>
+      <c r="BT1" s="34"/>
+      <c r="BU1" s="34"/>
+      <c r="BV1" s="34"/>
+      <c r="BW1" s="34"/>
+      <c r="BX1" s="34"/>
+      <c r="BY1" s="34"/>
+      <c r="BZ1" s="34"/>
+      <c r="CA1" s="34"/>
+      <c r="CB1" s="34"/>
+      <c r="CC1" s="34"/>
+      <c r="CD1" s="34"/>
+      <c r="CE1" s="34"/>
+      <c r="CF1" s="34"/>
+      <c r="CG1" s="34"/>
+      <c r="CH1" s="34"/>
+      <c r="CI1" s="34"/>
+      <c r="CJ1" s="34"/>
+      <c r="CK1" s="34"/>
+      <c r="CL1" s="34"/>
+      <c r="CM1" s="34"/>
       <c r="CO1" s="7" t="s">
         <v>76</v>
       </c>
@@ -1351,123 +1396,123 @@
       </c>
     </row>
     <row r="2" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="28" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="28" t="s">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="25" t="s">
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="AD2" s="28" t="s">
+      <c r="AD2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="28" t="s">
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="29"/>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
-      <c r="AU2" s="29"/>
-      <c r="AV2" s="29"/>
-      <c r="AW2" s="29"/>
-      <c r="AX2" s="29"/>
-      <c r="AY2" s="30"/>
-      <c r="AZ2" s="28" t="s">
+      <c r="AQ2" s="28"/>
+      <c r="AR2" s="28"/>
+      <c r="AS2" s="28"/>
+      <c r="AT2" s="28"/>
+      <c r="AU2" s="28"/>
+      <c r="AV2" s="28"/>
+      <c r="AW2" s="28"/>
+      <c r="AX2" s="28"/>
+      <c r="AY2" s="29"/>
+      <c r="AZ2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="BA2" s="29"/>
-      <c r="BB2" s="29"/>
-      <c r="BC2" s="29"/>
-      <c r="BD2" s="29"/>
-      <c r="BE2" s="30"/>
-      <c r="BF2" s="20" t="s">
+      <c r="BA2" s="28"/>
+      <c r="BB2" s="28"/>
+      <c r="BC2" s="28"/>
+      <c r="BD2" s="28"/>
+      <c r="BE2" s="29"/>
+      <c r="BF2" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="BG2" s="20" t="s">
+      <c r="BG2" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="BH2" s="28" t="s">
+      <c r="BH2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="BI2" s="29"/>
-      <c r="BJ2" s="29"/>
-      <c r="BK2" s="29"/>
-      <c r="BL2" s="29"/>
-      <c r="BM2" s="29"/>
-      <c r="BN2" s="29"/>
-      <c r="BO2" s="29"/>
-      <c r="BP2" s="30"/>
-      <c r="BQ2" s="23"/>
-      <c r="BR2" s="28" t="s">
+      <c r="BI2" s="28"/>
+      <c r="BJ2" s="28"/>
+      <c r="BK2" s="28"/>
+      <c r="BL2" s="28"/>
+      <c r="BM2" s="28"/>
+      <c r="BN2" s="28"/>
+      <c r="BO2" s="28"/>
+      <c r="BP2" s="29"/>
+      <c r="BQ2" s="22"/>
+      <c r="BR2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="BS2" s="29"/>
-      <c r="BT2" s="29"/>
-      <c r="BU2" s="29"/>
-      <c r="BV2" s="29"/>
-      <c r="BW2" s="29"/>
-      <c r="BX2" s="29"/>
-      <c r="BY2" s="29"/>
-      <c r="BZ2" s="29"/>
-      <c r="CA2" s="29"/>
-      <c r="CB2" s="29"/>
-      <c r="CC2" s="30"/>
-      <c r="CD2" s="28" t="s">
+      <c r="BS2" s="28"/>
+      <c r="BT2" s="28"/>
+      <c r="BU2" s="28"/>
+      <c r="BV2" s="28"/>
+      <c r="BW2" s="28"/>
+      <c r="BX2" s="28"/>
+      <c r="BY2" s="28"/>
+      <c r="BZ2" s="28"/>
+      <c r="CA2" s="28"/>
+      <c r="CB2" s="28"/>
+      <c r="CC2" s="29"/>
+      <c r="CD2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="CE2" s="29"/>
-      <c r="CF2" s="29"/>
-      <c r="CG2" s="29"/>
-      <c r="CH2" s="29"/>
-      <c r="CI2" s="29"/>
-      <c r="CJ2" s="29"/>
-      <c r="CK2" s="29"/>
-      <c r="CL2" s="29"/>
-      <c r="CM2" s="30"/>
+      <c r="CE2" s="28"/>
+      <c r="CF2" s="28"/>
+      <c r="CG2" s="28"/>
+      <c r="CH2" s="28"/>
+      <c r="CI2" s="28"/>
+      <c r="CJ2" s="28"/>
+      <c r="CK2" s="28"/>
+      <c r="CL2" s="28"/>
+      <c r="CM2" s="29"/>
       <c r="CO2" s="7" t="s">
         <v>77</v>
       </c>
@@ -1476,275 +1521,275 @@
       </c>
     </row>
     <row r="3" spans="1:94" s="4" customFormat="1" ht="95.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="U3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="V3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="W3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="X3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="Y3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Z3" s="11" t="s">
+      <c r="Z3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AA3" s="11" t="s">
+      <c r="AA3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AB3" s="16" t="s">
+      <c r="AB3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AC3" s="26" t="s">
+      <c r="AC3" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="AD3" s="15" t="s">
+      <c r="AD3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AE3" s="16" t="s">
+      <c r="AE3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="15" t="s">
+      <c r="AF3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AG3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AH3" s="11" t="s">
+      <c r="AH3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AI3" s="11" t="s">
+      <c r="AI3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AJ3" s="11" t="s">
+      <c r="AJ3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AK3" s="11" t="s">
+      <c r="AK3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AL3" s="11" t="s">
+      <c r="AL3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AM3" s="11" t="s">
+      <c r="AM3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AN3" s="11" t="s">
+      <c r="AN3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AO3" s="16" t="s">
+      <c r="AO3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AP3" s="15" t="s">
+      <c r="AP3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="AQ3" s="11" t="s">
+      <c r="AQ3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AR3" s="11" t="s">
+      <c r="AR3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AS3" s="11" t="s">
+      <c r="AS3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AT3" s="11" t="s">
+      <c r="AT3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AU3" s="11" t="s">
+      <c r="AU3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AV3" s="11" t="s">
+      <c r="AV3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AW3" s="11" t="s">
+      <c r="AW3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AX3" s="11" t="s">
+      <c r="AX3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AY3" s="16" t="s">
+      <c r="AY3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AZ3" s="15" t="s">
+      <c r="AZ3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="BA3" s="11" t="s">
+      <c r="BA3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="BB3" s="11" t="s">
+      <c r="BB3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="BC3" s="11" t="s">
+      <c r="BC3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="BD3" s="11" t="s">
+      <c r="BD3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="BE3" s="16" t="s">
+      <c r="BE3" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="BF3" s="21" t="s">
+      <c r="BF3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="BG3" s="21" t="s">
+      <c r="BG3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="BH3" s="15" t="s">
+      <c r="BH3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="BI3" s="11" t="s">
+      <c r="BI3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="BJ3" s="11" t="s">
+      <c r="BJ3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="BK3" s="11" t="s">
+      <c r="BK3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="BL3" s="11" t="s">
+      <c r="BL3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="BM3" s="11" t="s">
+      <c r="BM3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="BN3" s="11" t="s">
+      <c r="BN3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="BO3" s="11" t="s">
+      <c r="BO3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="BP3" s="16" t="s">
+      <c r="BP3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="BQ3" s="24" t="s">
+      <c r="BQ3" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="BR3" s="15" t="s">
+      <c r="BR3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="BS3" s="11" t="s">
+      <c r="BS3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="BT3" s="11" t="s">
+      <c r="BT3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="BU3" s="11" t="s">
+      <c r="BU3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="BV3" s="12" t="s">
+      <c r="BV3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="BW3" s="12" t="s">
+      <c r="BW3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="BX3" s="11" t="s">
+      <c r="BX3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="BY3" s="11" t="s">
+      <c r="BY3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="BZ3" s="11" t="s">
+      <c r="BZ3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="CA3" s="11" t="s">
+      <c r="CA3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="CB3" s="11" t="s">
+      <c r="CB3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="CC3" s="16" t="s">
+      <c r="CC3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="CD3" s="15" t="s">
+      <c r="CD3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="CE3" s="11" t="s">
+      <c r="CE3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="CF3" s="11" t="s">
+      <c r="CF3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="CG3" s="11" t="s">
+      <c r="CG3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="CH3" s="11" t="s">
+      <c r="CH3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="CI3" s="11" t="s">
+      <c r="CI3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="CJ3" s="11" t="s">
+      <c r="CJ3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="CK3" s="11" t="s">
+      <c r="CK3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="CL3" s="11" t="s">
+      <c r="CL3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="CM3" s="16" t="s">
+      <c r="CM3" s="15" t="s">
         <v>43</v>
       </c>
       <c r="CN3" s="4" t="s">
@@ -1754,2069 +1799,2631 @@
         <v>69</v>
       </c>
       <c r="CP3" s="8">
-        <f>SUM(CN10,CN12)*100/(CP2*CP1) * 0.01</f>
-        <v>0.23055555555555557</v>
+        <f>SUM(CN11,CN13)*100/(CP2*CP1) * 0.01</f>
+        <v>0.87777777777777777</v>
       </c>
     </row>
     <row r="4" spans="1:94" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="13" t="s">
+      <c r="D4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>68</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="V4" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="W4" s="19"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="18"/>
-      <c r="AP4" s="19"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="13"/>
+      <c r="K4" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="V4" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB4" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC4" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD4" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE4" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF4" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO4" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP4" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS4" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="AT4" s="9"/>
       <c r="AU4" s="9"/>
-      <c r="AV4" s="13"/>
-      <c r="AW4" s="13"/>
-      <c r="AX4" s="13"/>
-      <c r="AY4" s="18"/>
-      <c r="AZ4" s="19"/>
-      <c r="BA4" s="13"/>
-      <c r="BB4" s="13"/>
-      <c r="BC4" s="13"/>
-      <c r="BD4" s="13"/>
-      <c r="BE4" s="18"/>
-      <c r="BF4" s="22"/>
-      <c r="BG4" s="22"/>
-      <c r="BH4" s="19"/>
-      <c r="BI4" s="13"/>
-      <c r="BJ4" s="13"/>
-      <c r="BK4" s="13"/>
-      <c r="BL4" s="13"/>
-      <c r="BM4" s="13"/>
-      <c r="BN4" s="13"/>
-      <c r="BO4" s="13"/>
-      <c r="BP4" s="18"/>
-      <c r="BQ4" s="22"/>
-      <c r="BR4" s="17"/>
-      <c r="BS4" s="9"/>
-      <c r="BT4" s="9"/>
-      <c r="BU4" s="9"/>
-      <c r="BV4" s="9"/>
-      <c r="BW4" s="9"/>
-      <c r="BX4" s="9"/>
-      <c r="BY4" s="9"/>
-      <c r="BZ4" s="9"/>
-      <c r="CA4" s="9"/>
-      <c r="CB4" s="9"/>
-      <c r="CC4" s="10"/>
-      <c r="CD4" s="17"/>
-      <c r="CE4" s="9"/>
-      <c r="CF4" s="9"/>
-      <c r="CG4" s="9"/>
-      <c r="CH4" s="9"/>
-      <c r="CI4" s="9"/>
-      <c r="CJ4" s="9"/>
-      <c r="CK4" s="9"/>
-      <c r="CL4" s="9"/>
-      <c r="CM4" s="10"/>
+      <c r="AV4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY4" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ4" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE4" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF4" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="BG4" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH4" s="18"/>
+      <c r="BI4" s="12"/>
+      <c r="BJ4" s="12"/>
+      <c r="BK4" s="12"/>
+      <c r="BL4" s="12"/>
+      <c r="BM4" s="12"/>
+      <c r="BN4" s="12"/>
+      <c r="BO4" s="12"/>
+      <c r="BP4" s="17"/>
+      <c r="BQ4" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="BR4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BS4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BU4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BV4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BW4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BX4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BY4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BZ4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CA4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CB4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CC4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CD4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CE4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CF4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CI4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CJ4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CK4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CL4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CM4" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="CN4" s="1">
         <f>COUNTIF(B4:CM4,"")</f>
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="CO4" s="3">
         <f>CN4/$CP$2</f>
-        <v>0.76666666666666672</v>
+        <v>0.15555555555555556</v>
       </c>
     </row>
     <row r="5" spans="1:94" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="13" t="s">
+      <c r="D5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>68</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="U5" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="V5" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="W5" s="19"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="18"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
+      <c r="K5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="18"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="17"/>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="12"/>
+      <c r="AS5" s="12"/>
       <c r="AT5" s="9"/>
       <c r="AU5" s="9"/>
-      <c r="AV5" s="13"/>
-      <c r="AW5" s="13"/>
-      <c r="AX5" s="13"/>
-      <c r="AY5" s="18"/>
-      <c r="AZ5" s="19"/>
-      <c r="BA5" s="13"/>
-      <c r="BB5" s="13"/>
-      <c r="BC5" s="13"/>
-      <c r="BD5" s="13"/>
-      <c r="BE5" s="18"/>
-      <c r="BF5" s="22"/>
-      <c r="BG5" s="22"/>
-      <c r="BH5" s="19"/>
-      <c r="BI5" s="13"/>
-      <c r="BJ5" s="13"/>
-      <c r="BK5" s="13"/>
-      <c r="BL5" s="13"/>
-      <c r="BM5" s="13"/>
-      <c r="BN5" s="13"/>
-      <c r="BO5" s="13"/>
-      <c r="BP5" s="18"/>
-      <c r="BQ5" s="22"/>
-      <c r="BR5" s="17"/>
-      <c r="BS5" s="9"/>
-      <c r="BT5" s="9"/>
-      <c r="BU5" s="9"/>
-      <c r="BV5" s="9"/>
-      <c r="BW5" s="9"/>
-      <c r="BX5" s="9"/>
-      <c r="BY5" s="9"/>
-      <c r="BZ5" s="9"/>
-      <c r="CA5" s="9"/>
-      <c r="CB5" s="9"/>
-      <c r="CC5" s="10"/>
-      <c r="CD5" s="17"/>
-      <c r="CE5" s="9"/>
-      <c r="CF5" s="9"/>
-      <c r="CG5" s="9"/>
-      <c r="CH5" s="9"/>
-      <c r="CI5" s="9"/>
-      <c r="CJ5" s="9"/>
-      <c r="CK5" s="9"/>
-      <c r="CL5" s="9"/>
-      <c r="CM5" s="10"/>
-      <c r="CN5" s="1">
-        <f>COUNTIF(B5:CM5,"")</f>
-        <v>69</v>
-      </c>
-      <c r="CO5" s="3">
-        <f t="shared" ref="CO5:CO7" si="0">CN5/$CP$2</f>
-        <v>0.76666666666666672</v>
-      </c>
+      <c r="AV5" s="12"/>
+      <c r="AW5" s="12"/>
+      <c r="AX5" s="12"/>
+      <c r="AY5" s="17"/>
+      <c r="AZ5" s="18"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="17"/>
+      <c r="BF5" s="21"/>
+      <c r="BG5" s="21"/>
+      <c r="BH5" s="18"/>
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="12"/>
+      <c r="BK5" s="12"/>
+      <c r="BL5" s="12"/>
+      <c r="BM5" s="12"/>
+      <c r="BN5" s="12"/>
+      <c r="BO5" s="12"/>
+      <c r="BP5" s="17"/>
+      <c r="BQ5" s="21"/>
+      <c r="BR5" s="16"/>
+      <c r="BS5" s="16"/>
+      <c r="BT5" s="16"/>
+      <c r="BU5" s="16"/>
+      <c r="BV5" s="16"/>
+      <c r="BW5" s="16"/>
+      <c r="BX5" s="16"/>
+      <c r="BY5" s="16"/>
+      <c r="BZ5" s="16"/>
+      <c r="CA5" s="16"/>
+      <c r="CB5" s="16"/>
+      <c r="CC5" s="16"/>
+      <c r="CD5" s="16"/>
+      <c r="CE5" s="16"/>
+      <c r="CF5" s="16"/>
+      <c r="CG5" s="16"/>
+      <c r="CH5" s="16"/>
+      <c r="CI5" s="16"/>
+      <c r="CJ5" s="16"/>
+      <c r="CK5" s="16"/>
+      <c r="CL5" s="16"/>
+      <c r="CM5" s="16"/>
+      <c r="CO5" s="3"/>
     </row>
     <row r="6" spans="1:94" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="13" t="s">
+      <c r="D6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>68</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="U6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="V6" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="W6" s="19"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="18"/>
-      <c r="AP6" s="19"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
+      <c r="K6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="V6" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W6" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB6" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC6" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD6" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE6" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF6" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO6" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP6" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS6" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="AT6" s="9"/>
       <c r="AU6" s="9"/>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="13"/>
-      <c r="AX6" s="13"/>
-      <c r="AY6" s="18"/>
-      <c r="AZ6" s="19"/>
-      <c r="BA6" s="13"/>
-      <c r="BB6" s="13"/>
-      <c r="BC6" s="13"/>
-      <c r="BD6" s="13"/>
-      <c r="BE6" s="18"/>
-      <c r="BF6" s="22"/>
-      <c r="BG6" s="22"/>
-      <c r="BH6" s="19"/>
-      <c r="BI6" s="13"/>
-      <c r="BJ6" s="13"/>
-      <c r="BK6" s="13"/>
-      <c r="BL6" s="13"/>
-      <c r="BM6" s="13"/>
-      <c r="BN6" s="13"/>
-      <c r="BO6" s="13"/>
-      <c r="BP6" s="18"/>
-      <c r="BQ6" s="22"/>
-      <c r="BR6" s="17"/>
-      <c r="BS6" s="9"/>
-      <c r="BT6" s="9"/>
-      <c r="BU6" s="9"/>
-      <c r="BV6" s="9"/>
-      <c r="BW6" s="9"/>
-      <c r="BX6" s="9"/>
-      <c r="BY6" s="9"/>
-      <c r="BZ6" s="9"/>
-      <c r="CA6" s="9"/>
-      <c r="CB6" s="9"/>
-      <c r="CC6" s="10"/>
-      <c r="CD6" s="17"/>
-      <c r="CE6" s="9"/>
-      <c r="CF6" s="9"/>
-      <c r="CG6" s="9"/>
-      <c r="CH6" s="9"/>
-      <c r="CI6" s="9"/>
-      <c r="CJ6" s="9"/>
-      <c r="CK6" s="9"/>
-      <c r="CL6" s="9"/>
-      <c r="CM6" s="10"/>
+      <c r="AV6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY6" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ6" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE6" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF6" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="BG6" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH6" s="18"/>
+      <c r="BI6" s="12"/>
+      <c r="BJ6" s="12"/>
+      <c r="BK6" s="12"/>
+      <c r="BL6" s="12"/>
+      <c r="BM6" s="12"/>
+      <c r="BN6" s="12"/>
+      <c r="BO6" s="12"/>
+      <c r="BP6" s="17"/>
+      <c r="BQ6" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="BR6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BS6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BU6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BV6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BW6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BX6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BY6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BZ6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CA6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CB6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CC6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CD6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CE6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CF6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CI6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CJ6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CK6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CL6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CM6" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="CN6" s="1">
         <f>COUNTIF(B6:CM6,"")</f>
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="CO6" s="3">
-        <f t="shared" si="0"/>
-        <v>0.76666666666666672</v>
+        <f t="shared" ref="CO6:CO8" si="0">CN6/$CP$2</f>
+        <v>0.15555555555555556</v>
       </c>
     </row>
     <row r="7" spans="1:94" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="13" t="s">
+      <c r="D7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>68</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="P7" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q7" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="R7" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="U7" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="V7" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="W7" s="19"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="18"/>
-      <c r="AP7" s="19"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13"/>
+      <c r="K7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="V7" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB7" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC7" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE7" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO7" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS7" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="AT7" s="9"/>
       <c r="AU7" s="9"/>
-      <c r="AV7" s="13"/>
-      <c r="AW7" s="13"/>
-      <c r="AX7" s="13"/>
-      <c r="AY7" s="18"/>
-      <c r="AZ7" s="19"/>
-      <c r="BA7" s="13"/>
-      <c r="BB7" s="13"/>
-      <c r="BC7" s="13"/>
-      <c r="BD7" s="13"/>
-      <c r="BE7" s="18"/>
-      <c r="BF7" s="22"/>
-      <c r="BG7" s="22"/>
-      <c r="BH7" s="19"/>
-      <c r="BI7" s="13"/>
-      <c r="BJ7" s="13"/>
-      <c r="BK7" s="13"/>
-      <c r="BL7" s="13"/>
-      <c r="BM7" s="13"/>
-      <c r="BN7" s="13"/>
-      <c r="BO7" s="13"/>
-      <c r="BP7" s="18"/>
-      <c r="BQ7" s="22"/>
-      <c r="BR7" s="17"/>
-      <c r="BS7" s="9"/>
-      <c r="BT7" s="9"/>
-      <c r="BU7" s="9"/>
-      <c r="BV7" s="9"/>
-      <c r="BW7" s="9"/>
-      <c r="BX7" s="9"/>
-      <c r="BY7" s="9"/>
-      <c r="BZ7" s="9"/>
-      <c r="CA7" s="9"/>
-      <c r="CB7" s="9"/>
-      <c r="CC7" s="10"/>
-      <c r="CD7" s="17"/>
-      <c r="CE7" s="9"/>
-      <c r="CF7" s="9"/>
-      <c r="CG7" s="9"/>
-      <c r="CH7" s="9"/>
-      <c r="CI7" s="9"/>
-      <c r="CJ7" s="9"/>
-      <c r="CK7" s="9"/>
-      <c r="CL7" s="9"/>
-      <c r="CM7" s="10"/>
+      <c r="AV7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY7" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE7" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF7" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="BG7" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH7" s="18"/>
+      <c r="BI7" s="12"/>
+      <c r="BJ7" s="12"/>
+      <c r="BK7" s="12"/>
+      <c r="BL7" s="12"/>
+      <c r="BM7" s="12"/>
+      <c r="BN7" s="12"/>
+      <c r="BO7" s="12"/>
+      <c r="BP7" s="17"/>
+      <c r="BQ7" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="BR7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BS7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BU7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BV7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BW7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BX7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BY7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BZ7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CA7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CB7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CC7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CD7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CE7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CF7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CI7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CJ7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CK7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CL7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CM7" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="CN7" s="1">
         <f>COUNTIF(B7:CM7,"")</f>
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="CO7" s="3">
         <f t="shared" si="0"/>
-        <v>0.76666666666666672</v>
+        <v>0.15555555555555556</v>
       </c>
     </row>
     <row r="8" spans="1:94" x14ac:dyDescent="0.3">
-      <c r="CN8" s="6"/>
+      <c r="A8" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="V8" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W8" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB8" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC8" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD8" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE8" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF8" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO8" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP8" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY8" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ8" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE8" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF8" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="BG8" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH8" s="18"/>
+      <c r="BI8" s="12"/>
+      <c r="BJ8" s="12"/>
+      <c r="BK8" s="12"/>
+      <c r="BL8" s="12"/>
+      <c r="BM8" s="12"/>
+      <c r="BN8" s="12"/>
+      <c r="BO8" s="12"/>
+      <c r="BP8" s="17"/>
+      <c r="BQ8" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="BR8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BS8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BU8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BV8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BW8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BX8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BY8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BZ8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CA8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CB8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CC8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CD8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CE8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CF8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CI8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CJ8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CK8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CL8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CM8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CN8" s="1">
+        <f>COUNTIF(B8:CM8,"")</f>
+        <v>14</v>
+      </c>
+      <c r="CO8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.15555555555555556</v>
+      </c>
     </row>
     <row r="9" spans="1:94" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" ref="B9:AG9" si="1">COUNTIF(B4:B7,"")</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="X9" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="Y9" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="Z9" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AA9" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AB9" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AC9" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AD9" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AE9" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AF9" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AG9" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AH9" s="1">
-        <f t="shared" ref="AH9:BM9" si="2">COUNTIF(AH4:AH7,"")</f>
-        <v>4</v>
-      </c>
-      <c r="AI9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AJ9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AK9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AL9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AM9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AN9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AO9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AP9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AQ9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AR9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AS9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AT9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AU9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AV9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AW9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AX9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AY9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AZ9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="BA9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="BB9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="BC9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="BD9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="BE9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="BF9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="BG9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="BH9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="BI9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="BJ9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="BK9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="BL9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="BM9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="BN9" s="1">
-        <f t="shared" ref="BN9:CM9" si="3">COUNTIF(BN4:BN7,"")</f>
-        <v>4</v>
-      </c>
-      <c r="BO9" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="BP9" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="BQ9" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="BR9" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="BS9" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="BT9" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="BU9" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="BV9" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="BW9" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="BX9" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="BY9" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="BZ9" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="CA9" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="CB9" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="CC9" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="CD9" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="CE9" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="CF9" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="CG9" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="CH9" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="CI9" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="CJ9" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="CK9" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="CL9" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="CM9" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="CN9" s="6">
-        <f>SUM(B9:CM9)</f>
-        <v>276</v>
-      </c>
-      <c r="CO9" s="2"/>
+      <c r="CN9" s="6"/>
     </row>
     <row r="10" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" ref="B10:AG10" si="4">COUNTIF(B4:B7,"x")</f>
-        <v>4</v>
+        <f t="shared" ref="B10:AG10" si="1">COUNTIF(B4:B8,"")</f>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="S10" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="T10" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="U10" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="W10" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="X10" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="Y10" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="Z10" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="AA10" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="AB10" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="AC10" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="AD10" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="AE10" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="AF10" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="AG10" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="AH10" s="1">
-        <f t="shared" ref="AH10:BM10" si="5">COUNTIF(AH4:AH7,"x")</f>
-        <v>0</v>
+        <f t="shared" ref="AH10:BM10" si="2">COUNTIF(AH4:AH8,"")</f>
+        <v>1</v>
       </c>
       <c r="AI10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AJ10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AK10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AL10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AM10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AN10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AO10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AP10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AQ10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AR10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AS10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AT10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="AU10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="AV10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AW10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AX10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AY10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AZ10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="BA10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="BB10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="BC10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="BD10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="BE10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="BF10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="BG10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="BH10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="BI10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="BJ10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="BK10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="BL10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="BM10" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="BN10" s="1">
-        <f t="shared" ref="BN10:CM10" si="6">COUNTIF(BN4:BN7,"x")</f>
-        <v>0</v>
+        <f t="shared" ref="BN10:CM10" si="3">COUNTIF(BN4:BN8,"")</f>
+        <v>5</v>
       </c>
       <c r="BO10" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="BP10" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="BQ10" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="BR10" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="BS10" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="BT10" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="BU10" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="BV10" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="BW10" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="BX10" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="BY10" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="BZ10" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="CA10" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="CB10" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="CC10" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="CD10" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="CE10" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="CF10" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="CG10" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="CH10" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="CI10" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="CJ10" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="CK10" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="CL10" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="CM10" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CN10" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="CN10" s="6">
         <f>SUM(B10:CM10)</f>
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="CO10" s="2"/>
     </row>
     <row r="11" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" ref="B11:AG11" si="7">COUNTIF(B4:B7,"p")</f>
-        <v>0</v>
+        <f t="shared" ref="B11:AG11" si="4">COUNTIF(B4:B8,"x")</f>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T11" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="W11" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="X11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA11" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="AB11" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="AC11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD11" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="AE11" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="AF11" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="AG11" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="AH11" s="1">
-        <f t="shared" ref="AH11:BM11" si="8">COUNTIF(AH4:AH7,"p")</f>
-        <v>0</v>
+        <f t="shared" ref="AH11:BM11" si="5">COUNTIF(AH4:AH8,"x")</f>
+        <v>4</v>
       </c>
       <c r="AI11" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AJ11" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AK11" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AL11" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AM11" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AN11" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AO11" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AP11" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AQ11" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AR11" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AS11" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AT11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AV11" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AW11" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AX11" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AY11" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AZ11" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="BA11" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="BB11" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="BC11" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="BD11" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="BE11" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="BF11" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="BG11" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="BH11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BK11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BL11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BM11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <f t="shared" ref="BN11:CM11" si="9">COUNTIF(BN4:BN7,"p")</f>
+        <f t="shared" ref="BN11:CM11" si="6">COUNTIF(BN4:BN8,"x")</f>
         <v>0</v>
       </c>
       <c r="BO11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BP11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BQ11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BR11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BT11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BU11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BV11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BW11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BY11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BZ11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CA11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CB11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CD11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CE11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CF11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CG11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CH11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CI11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CJ11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CK11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CL11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CM11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CN11" s="1">
         <f>SUM(B11:CM11)</f>
-        <v>1</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="CO11" s="2"/>
     </row>
     <row r="12" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" ref="B12:AG12" si="7">COUNTIF(B4:B8,"p")</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" ref="AH12:BM12" si="8">COUNTIF(AH4:AH8,"p")</f>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AN12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AS12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AT12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AU12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AV12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AX12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AY12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BA12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BB12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BC12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BD12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BF12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BI12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BK12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BL12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BM12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BN12" s="1">
+        <f t="shared" ref="BN12:CM12" si="9">COUNTIF(BN4:BN8,"p")</f>
+        <v>0</v>
+      </c>
+      <c r="BO12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BP12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BR12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BS12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BT12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BU12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BV12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BW12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BX12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BY12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BZ12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CA12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CB12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CC12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CD12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CE12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CF12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CG12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CH12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CI12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CJ12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CK12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CL12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CM12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CN12" s="1">
+        <f>SUM(B12:CM12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:94" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="1">
-        <f t="shared" ref="B12:AG12" si="10">COUNTIF(B4:B7,"-")</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B13" s="1">
+        <f t="shared" ref="B13:AG13" si="10">COUNTIF(B4:B8,"-")</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F13" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G13" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H13" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I13" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J13" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K13" s="1">
         <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="L12" s="1">
+        <v>5</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="T13" s="1">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="M12" s="1">
+      <c r="U13" s="1">
         <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
         <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P12" s="1">
+      <c r="X13" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Y13" s="1">
         <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S12" s="1">
+      <c r="AA13" s="1">
         <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
         <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD13" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W12" s="1">
+      <c r="AE13" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X12" s="1">
+      <c r="AF13" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="AG13" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AG12" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH12" s="1">
-        <f t="shared" ref="AH12:BM12" si="11">COUNTIF(AH4:AH7,"-")</f>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="1">
+      <c r="AH13" s="1">
+        <f t="shared" ref="AH13:BM13" si="11">COUNTIF(AH4:AH8,"-")</f>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AJ13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AK12" s="1">
+      <c r="AK13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AL12" s="1">
+      <c r="AL13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AM12" s="1">
+      <c r="AM13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AN12" s="1">
+      <c r="AN13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AO12" s="1">
+      <c r="AO13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AP12" s="1">
+      <c r="AP13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AQ12" s="1">
+      <c r="AQ13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AR12" s="1">
+      <c r="AR13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AS12" s="1">
+      <c r="AS13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AT12" s="1">
+      <c r="AT13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AU12" s="1">
+      <c r="AU13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AV12" s="1">
+      <c r="AV13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AW12" s="1">
+      <c r="AW13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AX12" s="1">
+      <c r="AX13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AY12" s="1">
+      <c r="AY13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AZ12" s="1">
+      <c r="AZ13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BA12" s="1">
+      <c r="BA13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BB12" s="1">
+      <c r="BB13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BC12" s="1">
+      <c r="BC13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BD12" s="1">
+      <c r="BD13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BE12" s="1">
+      <c r="BE13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BF12" s="1">
+      <c r="BF13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BG12" s="1">
+      <c r="BG13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BH12" s="1">
+      <c r="BH13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BI12" s="1">
+      <c r="BI13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BJ12" s="1">
+      <c r="BJ13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BK12" s="1">
+      <c r="BK13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BL12" s="1">
+      <c r="BL13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BM12" s="1">
+      <c r="BM13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BN12" s="1">
-        <f t="shared" ref="BN12:CM12" si="12">COUNTIF(BN4:BN7,"-")</f>
-        <v>0</v>
-      </c>
-      <c r="BO12" s="1">
+      <c r="BN13" s="1">
+        <f t="shared" ref="BN13:CM13" si="12">COUNTIF(BN4:BN8,"-")</f>
+        <v>0</v>
+      </c>
+      <c r="BO13" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BP12" s="1">
+      <c r="BP13" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BQ12" s="1">
+      <c r="BQ13" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BR12" s="1">
+        <v>4</v>
+      </c>
+      <c r="BR13" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BS12" s="1">
+        <v>4</v>
+      </c>
+      <c r="BS13" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BT12" s="1">
+        <v>4</v>
+      </c>
+      <c r="BT13" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BU12" s="1">
+        <v>4</v>
+      </c>
+      <c r="BU13" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BV12" s="1">
+        <v>4</v>
+      </c>
+      <c r="BV13" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BW12" s="1">
+        <v>4</v>
+      </c>
+      <c r="BW13" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BX12" s="1">
+        <v>4</v>
+      </c>
+      <c r="BX13" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BY12" s="1">
+        <v>4</v>
+      </c>
+      <c r="BY13" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BZ12" s="1">
+        <v>4</v>
+      </c>
+      <c r="BZ13" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="CA12" s="1">
+        <v>4</v>
+      </c>
+      <c r="CA13" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="CB12" s="1">
+        <v>4</v>
+      </c>
+      <c r="CB13" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="CC12" s="1">
+        <v>4</v>
+      </c>
+      <c r="CC13" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="CD12" s="1">
+        <v>4</v>
+      </c>
+      <c r="CD13" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="CE12" s="1">
+        <v>4</v>
+      </c>
+      <c r="CE13" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="CF12" s="1">
+        <v>4</v>
+      </c>
+      <c r="CF13" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="CG12" s="1">
+        <v>4</v>
+      </c>
+      <c r="CG13" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="CH12" s="1">
+        <v>4</v>
+      </c>
+      <c r="CH13" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="CI12" s="1">
+        <v>4</v>
+      </c>
+      <c r="CI13" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="CJ12" s="1">
+        <v>4</v>
+      </c>
+      <c r="CJ13" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="CK12" s="1">
+        <v>4</v>
+      </c>
+      <c r="CK13" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="CL12" s="1">
+        <v>4</v>
+      </c>
+      <c r="CL13" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="CM12" s="1">
+        <v>4</v>
+      </c>
+      <c r="CM13" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="CN12" s="1">
-        <f>SUM(B12:CM12)</f>
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="CN13" s="1">
+        <f>SUM(B13:CM13)</f>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3834,20 +4441,20 @@
     <mergeCell ref="AP2:AY2"/>
     <mergeCell ref="AZ2:BE2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:C7">
-    <cfRule type="containsBlanks" dxfId="3" priority="48">
+  <conditionalFormatting sqref="B4:C8">
+    <cfRule type="containsBlanks" dxfId="9" priority="48">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:CM7">
-    <cfRule type="cellIs" dxfId="2" priority="46" operator="equal">
+  <conditionalFormatting sqref="B4:CM8">
+    <cfRule type="cellIs" dxfId="8" priority="46" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="47" operator="equal">
       <formula>"p"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:CM12">
+  <conditionalFormatting sqref="B10:CM13">
     <cfRule type="colorScale" priority="206">
       <colorScale>
         <cfvo type="min"/>
@@ -3859,12 +4466,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:CM7">
-    <cfRule type="containsBlanks" dxfId="0" priority="49" stopIfTrue="1">
+  <conditionalFormatting sqref="D4:CM8">
+    <cfRule type="containsBlanks" dxfId="6" priority="49" stopIfTrue="1">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CO4:CO7">
+  <conditionalFormatting sqref="CO4:CO8">
     <cfRule type="colorScale" priority="207">
       <colorScale>
         <cfvo type="min"/>
